--- a/2017-2마일리지.xlsx
+++ b/2017-2마일리지.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>학점</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -88,6 +88,10 @@
   </si>
   <si>
     <t>최종수정일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>합계</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -464,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J10"/>
+  <dimension ref="A2:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -481,7 +485,7 @@
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C2" s="1" t="s">
         <v>15</v>
       </c>
@@ -489,7 +493,7 @@
         <v>42953</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -515,7 +519,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B4" s="1">
         <v>3</v>
       </c>
@@ -523,7 +527,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4" s="1">
         <v>17</v>
@@ -538,11 +542,11 @@
         <v>4</v>
       </c>
       <c r="J4" s="1">
-        <f>76-H10</f>
+        <f ca="1">76-H9</f>
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
         <v>3</v>
       </c>
@@ -565,7 +569,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
         <v>3</v>
       </c>
@@ -588,7 +592,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
         <v>3</v>
       </c>
@@ -596,7 +600,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="1">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="E7" s="1">
         <v>50</v>
@@ -611,7 +615,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
         <v>3</v>
       </c>
@@ -619,7 +623,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="1">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="E8" s="1">
         <v>80</v>
@@ -634,37 +638,40 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="B9" s="1">
+        <f ca="1">SUM(B4:B11)</f>
+        <v>15</v>
+      </c>
+      <c r="H9" s="2">
+        <f ca="1">SUM(H4:H11)</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="1">
         <v>0</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D11" s="1">
         <v>68</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E11" s="1">
         <v>40</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F11" s="1">
         <v>57</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G11" s="1">
         <v>5</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H11" s="1">
         <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B10" s="1">
-        <f>SUM(B4:B9)</f>
-        <v>15</v>
-      </c>
-      <c r="H10" s="2">
-        <f>SUM(H4:H9)</f>
-        <v>75</v>
       </c>
     </row>
   </sheetData>
